--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744599.9231296576</v>
+        <v>-747134.894005512</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>124.6096831160945</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>236.741056040672</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>15.67611869136979</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>12.40418031676334</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.6057368324937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>248.2911806484865</v>
+        <v>218.8546041744718</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>72.08802744677254</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>244.6822285245954</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>270.4868569307851</v>
+        <v>10.68879048862392</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>95.02966874231831</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>225.5290748739316</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>2.60701007315258</v>
       </c>
       <c r="X13" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>182.4326803923967</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>80.88538973875202</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,13 +1844,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>39.52129633183302</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018848</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>28.75188085812055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>80.67842139643641</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652613</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1628.17820394412</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C2" t="n">
-        <v>1259.215687003708</v>
+        <v>1049.698447476241</v>
       </c>
       <c r="D2" t="n">
-        <v>900.9499883969577</v>
+        <v>691.4327488694903</v>
       </c>
       <c r="E2" t="n">
-        <v>775.0816216130238</v>
+        <v>305.6444962712461</v>
       </c>
       <c r="F2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>2014.778044008242</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4468,70 +4468,70 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>905.0525424935689</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>905.0525424935689</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="X4" t="n">
-        <v>905.0525424935689</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559526</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="C5" t="n">
-        <v>1514.348043559526</v>
+        <v>1442.617229168676</v>
       </c>
       <c r="D5" t="n">
-        <v>1156.082344952775</v>
+        <v>1084.351530561926</v>
       </c>
       <c r="E5" t="n">
-        <v>770.2940923545309</v>
+        <v>698.5632779636817</v>
       </c>
       <c r="F5" t="n">
-        <v>359.3081875649233</v>
+        <v>287.5773731740741</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,13 +4662,13 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
         <v>2435.471302619336</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181849</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C7" t="n">
-        <v>751.950822890278</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D7" t="n">
-        <v>601.8341834779422</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>453.9210898955491</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>307.0311423976387</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3283057723577</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>139.3283057723577</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2736.118358115654</v>
+        <v>3061.278586813689</v>
       </c>
       <c r="W8" t="n">
-        <v>2736.118358115654</v>
+        <v>2708.509931543575</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2335.044173282495</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>1944.904841306683</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4899,7 +4899,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.3278112441808</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C10" t="n">
-        <v>309.3916283162739</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D10" t="n">
-        <v>309.3916283162739</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877109</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V10" t="n">
-        <v>699.1203903877109</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="W10" t="n">
-        <v>699.1203903877109</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="X10" t="n">
-        <v>699.1203903877109</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="Y10" t="n">
-        <v>478.3278112441808</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5303,13 +5303,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5440,46 +5440,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797766</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832666</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855607</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199805</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.538274322277</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,10 +5507,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
@@ -5519,43 +5519,43 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740073</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>513.853600740073</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277373</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>215.8238677453442</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648821</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138429</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703128</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,13 +5981,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,13 +6300,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,16 +6835,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,34 +6856,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
         <v>2035.268256189238</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,16 +7008,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7081,25 +7081,25 @@
         <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,16 +7245,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380722</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311317</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,19 +7582,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>257.3206869561673</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>170.1349897010394</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>236.4615246324582</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>130.7285955478825</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465679</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.9159882634384</v>
       </c>
       <c r="X13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-2.779641435508475e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>34.97276993489152</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>171.252253585076</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>105.8997516910982</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194319</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.654232434377241e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1185001.224710805</v>
+        <v>1185001.224710804</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1185001.224710805</v>
+        <v>1185001.224710804</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1185001.224710804</v>
+        <v>1185001.224710805</v>
       </c>
     </row>
     <row r="10">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254692</v>
+        <v>207271.1201254693</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
+        <v>242143.9799070019</v>
+      </c>
+      <c r="G2" t="n">
+        <v>242143.9799070017</v>
+      </c>
+      <c r="H2" t="n">
         <v>242143.9799070018</v>
       </c>
-      <c r="G2" t="n">
-        <v>242143.9799070019</v>
-      </c>
-      <c r="H2" t="n">
-        <v>242143.9799070019</v>
-      </c>
       <c r="I2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19318.23781180938</v>
+        <v>19318.23781180941</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687964</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="M4" t="n">
-        <v>23427.49926997311</v>
+        <v>23427.49926997319</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997311</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="O4" t="n">
         <v>23427.49926997313</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1248725.803975326</v>
+        <v>-1249051.149065607</v>
       </c>
       <c r="C6" t="n">
-        <v>44781.84629383907</v>
+        <v>44781.8462938391</v>
       </c>
       <c r="D6" t="n">
-        <v>44781.84629383909</v>
+        <v>44781.84629383916</v>
       </c>
       <c r="E6" t="n">
-        <v>-199827.6517311402</v>
+        <v>-199862.3896565764</v>
       </c>
       <c r="F6" t="n">
-        <v>125584.8100762146</v>
+        <v>125550.0721507794</v>
       </c>
       <c r="G6" t="n">
-        <v>125584.8100762153</v>
+        <v>125550.0721507792</v>
       </c>
       <c r="H6" t="n">
-        <v>125584.8100762151</v>
+        <v>125550.0721507795</v>
       </c>
       <c r="I6" t="n">
-        <v>125584.8100762151</v>
+        <v>125550.0721507794</v>
       </c>
       <c r="J6" t="n">
-        <v>-91946.39232106238</v>
+        <v>-91981.13024649816</v>
       </c>
       <c r="K6" t="n">
-        <v>125584.8100762151</v>
+        <v>125550.0721507792</v>
       </c>
       <c r="L6" t="n">
-        <v>125584.8100762151</v>
+        <v>125550.0721507793</v>
       </c>
       <c r="M6" t="n">
-        <v>15238.16990625254</v>
+        <v>15238.16990625249</v>
       </c>
       <c r="N6" t="n">
-        <v>119720.9158353965</v>
+        <v>119720.9158353962</v>
       </c>
       <c r="O6" t="n">
         <v>119720.9158353964</v>
       </c>
       <c r="P6" t="n">
-        <v>119720.9158353964</v>
+        <v>119720.9158353965</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>143.3902224719451</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>175.9789165196011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>162.6305450049669</v>
+        <v>192.0671214789816</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>24.26439296306555</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,10 +27828,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>7.455414799232642</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>57.26540153934985</v>
+        <v>317.063467981511</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>51.40429390425086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>60.99392346265944</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32239,7 +32239,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175677</v>
@@ -32309,16 +32309,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.7309431539454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191335</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35887,7 +35887,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M17" t="n">
         <v>735.300110790295</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899061</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998997</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>23.94570355317105</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38175,16 +38175,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980851</v>
